--- a/Data/EC/NIT-9005369862.xlsx
+++ b/Data/EC/NIT-9005369862.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBDF7314-AD10-498D-9E34-FCF874D6DDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA509178-B12A-46D1-B6AC-A2190EF7C01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2677AC7B-4EB9-4DD0-8BAA-D71B159C5201}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD9CF29F-8E7B-4425-A21B-ACEFAC44B7C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="112">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,271 +65,280 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1007229497</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO PEREZ POLO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>1047424795</t>
+  </si>
+  <si>
+    <t>JANIETH ROSALBA CABEZA HERRERA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>9186548</t>
+  </si>
+  <si>
+    <t>JUAN GABRIEL DE LAS AGUAS MERCADO</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>73202527</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO MEZA JIMENEZ</t>
+  </si>
+  <si>
+    <t>1067966385</t>
+  </si>
+  <si>
+    <t>ELISA ESTHER MARTINEZ DIAZ</t>
+  </si>
+  <si>
+    <t>1143369695</t>
+  </si>
+  <si>
+    <t>JULIETH DEL CARMEN SEPULVEDA GONZALEZ</t>
+  </si>
+  <si>
     <t>9186541</t>
   </si>
   <si>
     <t>LUIS FERNANDO MANRIQUE PATERNINA</t>
   </si>
   <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
     <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>9186548</t>
-  </si>
-  <si>
-    <t>JUAN GABRIEL DE LAS AGUAS MERCADO</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>1143369695</t>
-  </si>
-  <si>
-    <t>JULIETH DEL CARMEN SEPULVEDA GONZALEZ</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>1047424795</t>
-  </si>
-  <si>
-    <t>JANIETH ROSALBA CABEZA HERRERA</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>1007229497</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO PEREZ POLO</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>73202527</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO MEZA JIMENEZ</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -743,7 +752,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762BA98E-B20E-A754-A733-490ACA38573C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131A39B9-B410-1028-FF54-B717AD2ACD56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,8 +1103,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B266EE-4F42-41DF-BDC5-86281D011CF0}">
-  <dimension ref="B2:J157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AC1C2E-84F5-44BA-B66D-40059BF50AC7}">
+  <dimension ref="B2:J162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1119,7 +1128,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1164,7 +1173,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1196,12 +1205,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6584359</v>
+        <v>6839396</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1212,17 +1221,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F13" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1249,13 +1258,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1272,10 +1281,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1295,10 +1304,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1318,10 +1327,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1332,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1355,19 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1378,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1401,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1424,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1447,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1470,19 +1479,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1493,19 +1502,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1516,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1539,19 +1548,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1562,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1585,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1608,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1631,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G32" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1654,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1677,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1700,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G35" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1723,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1746,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1769,19 +1778,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1792,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>33125</v>
+        <v>70534</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1815,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1838,19 +1847,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1861,13 +1870,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1884,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1907,19 +1916,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F44" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G44" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1930,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1953,19 +1962,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F46" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G46" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1976,19 +1985,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F47" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G47" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1999,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -2022,13 +2031,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -2045,19 +2054,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F50" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G50" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2068,19 +2077,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F51" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G51" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2091,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -2114,19 +2123,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F53" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G53" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2137,13 +2146,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -2160,19 +2169,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F55" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G55" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2183,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2206,13 +2215,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2229,19 +2238,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F58" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G58" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2252,19 +2261,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F59" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G59" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2275,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
         <v>33125</v>
@@ -2298,19 +2307,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G61" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2321,13 +2330,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F62" s="18">
         <v>33125</v>
@@ -2344,13 +2353,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2367,19 +2376,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F64" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G64" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2390,13 +2399,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F65" s="18">
         <v>33125</v>
@@ -2413,13 +2422,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F66" s="18">
         <v>33125</v>
@@ -2436,13 +2445,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2459,13 +2468,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2482,13 +2491,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2505,13 +2514,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2528,13 +2537,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2551,13 +2560,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2574,13 +2583,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2597,19 +2606,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2620,13 +2629,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2643,13 +2652,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2666,19 +2675,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F77" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G77" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2689,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2712,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2735,13 +2744,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2758,13 +2767,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2781,13 +2790,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2804,19 +2813,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F83" s="18">
-        <v>70534</v>
+        <v>33125</v>
       </c>
       <c r="G83" s="18">
-        <v>2300000</v>
+        <v>828116</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2827,19 +2836,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F84" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G84" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2850,13 +2859,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F85" s="18">
         <v>33125</v>
@@ -2873,13 +2882,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F86" s="18">
         <v>33125</v>
@@ -2896,19 +2905,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F87" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G87" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2919,19 +2928,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F88" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G88" s="18">
-        <v>2300000</v>
+        <v>828116</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2942,19 +2951,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F89" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G89" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2965,19 +2974,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F90" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G90" s="18">
-        <v>2300000</v>
+        <v>828116</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2988,13 +2997,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F91" s="18">
         <v>33125</v>
@@ -3011,13 +3020,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F92" s="18">
         <v>33125</v>
@@ -3034,19 +3043,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F93" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G93" s="18">
-        <v>2300000</v>
+        <v>828116</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3057,19 +3066,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F94" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G94" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3080,19 +3089,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F95" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G95" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3103,19 +3112,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F96" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G96" s="18">
-        <v>2300000</v>
+        <v>828116</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3126,13 +3135,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F97" s="18">
         <v>33125</v>
@@ -3149,19 +3158,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F98" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G98" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3172,13 +3181,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F99" s="18">
         <v>33125</v>
@@ -3195,19 +3204,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F100" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G100" s="18">
-        <v>2300000</v>
+        <v>828116</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3218,19 +3227,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F101" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G101" s="18">
-        <v>2300000</v>
+        <v>828116</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3241,19 +3250,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D102" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="F102" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G102" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3264,13 +3273,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F103" s="18">
         <v>33125</v>
@@ -3287,13 +3296,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F104" s="18">
         <v>33125</v>
@@ -3310,19 +3319,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F105" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G105" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3333,19 +3342,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F106" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G106" s="18">
-        <v>2300000</v>
+        <v>828116</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3356,13 +3365,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F107" s="18">
         <v>33125</v>
@@ -3379,19 +3388,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F108" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G108" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3402,19 +3411,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F109" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G109" s="18">
-        <v>2300000</v>
+        <v>828116</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3425,19 +3434,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F110" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G110" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3448,10 +3457,10 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>84</v>
@@ -3471,19 +3480,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F112" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G112" s="18">
-        <v>2300000</v>
+        <v>828116</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3494,13 +3503,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F113" s="18">
         <v>33125</v>
@@ -3517,19 +3526,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F114" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G114" s="18">
-        <v>2300000</v>
+        <v>828116</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3540,19 +3549,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F115" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G115" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3563,19 +3572,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F116" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G116" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3586,19 +3595,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F117" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G117" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3609,19 +3618,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="F118" s="18">
-        <v>92000</v>
+        <v>46400</v>
       </c>
       <c r="G118" s="18">
-        <v>2300000</v>
+        <v>1160000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3632,13 +3641,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="F119" s="18">
         <v>46400</v>
@@ -3655,19 +3664,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="F120" s="18">
-        <v>92000</v>
+        <v>46400</v>
       </c>
       <c r="G120" s="18">
-        <v>2300000</v>
+        <v>1160000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3678,19 +3687,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D121" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="F121" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G121" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3701,19 +3710,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="F122" s="18">
-        <v>92000</v>
+        <v>46400</v>
       </c>
       <c r="G122" s="18">
-        <v>2300000</v>
+        <v>1160000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3724,19 +3733,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="F123" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G123" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3747,13 +3756,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="F124" s="18">
         <v>46400</v>
@@ -3770,19 +3779,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="F125" s="18">
-        <v>92000</v>
+        <v>46400</v>
       </c>
       <c r="G125" s="18">
-        <v>2300000</v>
+        <v>1160000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3793,13 +3802,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="F126" s="18">
         <v>46400</v>
@@ -3816,19 +3825,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="F127" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G127" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3839,19 +3848,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="F128" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G128" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3862,19 +3871,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F129" s="18">
-        <v>92000</v>
+        <v>46400</v>
       </c>
       <c r="G129" s="18">
-        <v>2300000</v>
+        <v>1160000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3885,13 +3894,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="F130" s="18">
         <v>46400</v>
@@ -3908,13 +3917,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="F131" s="18">
         <v>46400</v>
@@ -3931,19 +3940,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="F132" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G132" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3954,19 +3963,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="F133" s="18">
-        <v>92000</v>
+        <v>46400</v>
       </c>
       <c r="G133" s="18">
-        <v>2300000</v>
+        <v>1160000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3977,19 +3986,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="F134" s="18">
-        <v>92000</v>
+        <v>46400</v>
       </c>
       <c r="G134" s="18">
-        <v>2300000</v>
+        <v>1160000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4000,19 +4009,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F135" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G135" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4023,13 +4032,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="F136" s="18">
         <v>46400</v>
@@ -4046,13 +4055,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F137" s="18">
         <v>46400</v>
@@ -4069,19 +4078,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="F138" s="18">
-        <v>92000</v>
+        <v>46400</v>
       </c>
       <c r="G138" s="18">
-        <v>2300000</v>
+        <v>1160000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4092,19 +4101,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F139" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G139" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4115,13 +4124,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F140" s="18">
         <v>46400</v>
@@ -4138,19 +4147,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F141" s="18">
-        <v>33125</v>
+        <v>56940</v>
       </c>
       <c r="G141" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4161,19 +4170,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="F142" s="18">
-        <v>92000</v>
+        <v>26572</v>
       </c>
       <c r="G142" s="18">
-        <v>2300000</v>
+        <v>1423500</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4184,19 +4193,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F143" s="18">
-        <v>92000</v>
+        <v>72000</v>
       </c>
       <c r="G143" s="18">
-        <v>2300000</v>
+        <v>2521422</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4207,19 +4216,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="F144" s="18">
-        <v>46400</v>
+        <v>72000</v>
       </c>
       <c r="G144" s="18">
-        <v>1160000</v>
+        <v>2521422</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4230,19 +4239,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="F145" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G145" s="18">
-        <v>828116</v>
+        <v>2521422</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4253,19 +4262,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F146" s="18">
-        <v>46400</v>
+        <v>72000</v>
       </c>
       <c r="G146" s="18">
-        <v>1160000</v>
+        <v>2521422</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4276,19 +4285,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F147" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G147" s="18">
-        <v>828116</v>
+        <v>2521422</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4299,19 +4308,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F148" s="18">
-        <v>92000</v>
+        <v>72000</v>
       </c>
       <c r="G148" s="18">
-        <v>2300000</v>
+        <v>2521422</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4322,19 +4331,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F149" s="18">
-        <v>92000</v>
+        <v>72000</v>
       </c>
       <c r="G149" s="18">
-        <v>2300000</v>
+        <v>2521422</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4345,75 +4354,190 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F150" s="18">
-        <v>46400</v>
+        <v>72000</v>
       </c>
       <c r="G150" s="18">
-        <v>1160000</v>
+        <v>2521422</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
       <c r="J150" s="20"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="22" t="s">
+      <c r="B151" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F151" s="18">
+        <v>72000</v>
+      </c>
+      <c r="G151" s="18">
+        <v>2521422</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F152" s="18">
+        <v>72000</v>
+      </c>
+      <c r="G152" s="18">
+        <v>2521422</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B153" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F153" s="18">
+        <v>72000</v>
+      </c>
+      <c r="G153" s="18">
+        <v>2521422</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B154" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D154" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F151" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G151" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H151" s="25"/>
-      <c r="I151" s="25"/>
-      <c r="J151" s="26"/>
+      <c r="E154" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F154" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G154" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B155" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F155" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G155" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="20"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C156" s="32"/>
-      <c r="H156" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B157" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C157" s="32"/>
-      <c r="H157" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
+      <c r="B156" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E156" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F156" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G156" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="26"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B161" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C161" s="32"/>
+      <c r="H161" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B162" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C162" s="32"/>
+      <c r="H162" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="H157:J157"/>
-    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="H161:J161"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005369862.xlsx
+++ b/Data/EC/NIT-9005369862.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA509178-B12A-46D1-B6AC-A2190EF7C01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F15AC34-4D43-47D5-9CDF-ED4653A71F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD9CF29F-8E7B-4425-A21B-ACEFAC44B7C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{80AB61CF-CBD3-4A01-A20B-85867E9BB8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="111">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,280 +65,277 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9186541</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO MANRIQUE PATERNINA</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>9186548</t>
+  </si>
+  <si>
+    <t>JUAN GABRIEL DE LAS AGUAS MERCADO</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>1143369695</t>
+  </si>
+  <si>
+    <t>JULIETH DEL CARMEN SEPULVEDA GONZALEZ</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1047424795</t>
+  </si>
+  <si>
+    <t>JANIETH ROSALBA CABEZA HERRERA</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
     <t>1007229497</t>
   </si>
   <si>
     <t>LUIS ALBERTO PEREZ POLO</t>
   </si>
   <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>73202527</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO MEZA JIMENEZ</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>1047424795</t>
-  </si>
-  <si>
-    <t>JANIETH ROSALBA CABEZA HERRERA</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>9186548</t>
-  </si>
-  <si>
-    <t>JUAN GABRIEL DE LAS AGUAS MERCADO</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>73202527</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO MEZA JIMENEZ</t>
-  </si>
-  <si>
-    <t>1067966385</t>
-  </si>
-  <si>
-    <t>ELISA ESTHER MARTINEZ DIAZ</t>
-  </si>
-  <si>
-    <t>1143369695</t>
-  </si>
-  <si>
-    <t>JULIETH DEL CARMEN SEPULVEDA GONZALEZ</t>
-  </si>
-  <si>
-    <t>9186541</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO MANRIQUE PATERNINA</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -437,7 +434,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -450,9 +449,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -652,23 +649,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,10 +693,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,7 +749,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131A39B9-B410-1028-FF54-B717AD2ACD56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628067CB-2883-62F1-851F-054E8D475196}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,8 +1100,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AC1C2E-84F5-44BA-B66D-40059BF50AC7}">
-  <dimension ref="B2:J162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D7D3E8-D2F5-4D16-8100-CED909EE161B}">
+  <dimension ref="B2:J163"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1128,7 +1125,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1173,7 +1170,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1205,12 +1202,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6839396</v>
+        <v>6927409</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1221,17 +1218,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1258,13 +1255,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1281,10 +1278,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1304,10 +1301,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1327,10 +1324,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1341,19 +1338,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1364,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1387,19 +1384,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1410,19 +1407,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1433,19 +1430,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1456,19 +1453,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1479,19 +1476,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1502,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1525,19 +1522,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1548,19 +1545,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1571,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1594,19 +1591,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1617,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1640,19 +1637,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1663,19 +1660,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1686,19 +1683,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1709,19 +1706,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1732,19 +1729,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1755,19 +1752,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1778,19 +1775,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>92000</v>
+        <v>33125</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1801,19 +1798,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>70534</v>
+        <v>33125</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1824,19 +1821,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G40" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1847,19 +1844,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1870,13 +1867,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1893,13 +1890,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1916,19 +1913,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F44" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>2726414</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1939,13 +1936,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1962,19 +1959,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>2726414</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1985,13 +1982,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -2008,19 +2005,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G48" s="18">
-        <v>828116</v>
+        <v>2726414</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2031,13 +2028,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -2054,19 +2051,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G50" s="18">
-        <v>828116</v>
+        <v>2726414</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2077,13 +2074,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -2100,19 +2097,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F52" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G52" s="18">
-        <v>828116</v>
+        <v>2726414</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2123,13 +2120,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -2146,19 +2143,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F54" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G54" s="18">
-        <v>828116</v>
+        <v>2726414</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2169,13 +2166,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -2192,19 +2189,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F56" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G56" s="18">
-        <v>828116</v>
+        <v>2726414</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2215,13 +2212,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2238,19 +2235,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F58" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G58" s="18">
-        <v>828116</v>
+        <v>2726414</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2261,13 +2258,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F59" s="18">
         <v>33125</v>
@@ -2284,19 +2281,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F60" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G60" s="18">
-        <v>828116</v>
+        <v>2726414</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2307,13 +2304,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F61" s="18">
         <v>33125</v>
@@ -2330,19 +2327,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F62" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G62" s="18">
-        <v>828116</v>
+        <v>2726414</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2353,13 +2350,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2376,19 +2373,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F64" s="18">
-        <v>33125</v>
+        <v>72000</v>
       </c>
       <c r="G64" s="18">
-        <v>828116</v>
+        <v>2726414</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2399,13 +2396,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F65" s="18">
         <v>33125</v>
@@ -2422,13 +2419,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F66" s="18">
         <v>33125</v>
@@ -2445,13 +2442,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2468,13 +2465,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2491,13 +2488,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2514,13 +2511,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2537,13 +2534,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2560,13 +2557,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2583,13 +2580,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2606,19 +2603,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F74" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2629,13 +2626,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2652,19 +2649,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F76" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G76" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2675,13 +2672,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2698,13 +2695,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2721,13 +2718,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2744,13 +2741,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2767,13 +2764,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2790,13 +2787,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2813,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F83" s="18">
-        <v>33125</v>
+        <v>70534</v>
       </c>
       <c r="G83" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2836,13 +2833,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2859,19 +2856,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F85" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G85" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2882,19 +2879,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F86" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G86" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2905,13 +2902,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F87" s="18">
         <v>33125</v>
@@ -2928,19 +2925,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F88" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G88" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2951,19 +2948,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F89" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G89" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2974,13 +2971,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F90" s="18">
         <v>33125</v>
@@ -2997,19 +2994,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F91" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G91" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3020,19 +3017,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F92" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G92" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3043,13 +3040,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F93" s="18">
         <v>33125</v>
@@ -3066,19 +3063,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F94" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G94" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3089,19 +3086,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F95" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G95" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3112,13 +3109,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F96" s="18">
         <v>33125</v>
@@ -3135,19 +3132,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F97" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G97" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3158,19 +3155,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F98" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G98" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3181,13 +3178,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F99" s="18">
         <v>33125</v>
@@ -3204,19 +3201,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F100" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G100" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3227,19 +3224,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F101" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G101" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3250,13 +3247,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F102" s="18">
         <v>33125</v>
@@ -3273,19 +3270,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F103" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G103" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3296,19 +3293,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F104" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G104" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3319,13 +3316,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F105" s="18">
         <v>33125</v>
@@ -3342,19 +3339,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F106" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G106" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3365,19 +3362,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F107" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G107" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3388,13 +3385,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F108" s="18">
         <v>33125</v>
@@ -3411,19 +3408,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F109" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G109" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3434,19 +3431,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F110" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G110" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3457,10 +3454,10 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>84</v>
@@ -3480,19 +3477,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F112" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G112" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3503,19 +3500,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F113" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G113" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3526,13 +3523,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F114" s="18">
         <v>33125</v>
@@ -3549,19 +3546,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F115" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G115" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3572,19 +3569,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F116" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G116" s="18">
-        <v>828116</v>
+        <v>2300000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3595,19 +3592,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F117" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G117" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3618,13 +3615,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F118" s="18">
         <v>46400</v>
@@ -3641,19 +3638,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F119" s="18">
-        <v>46400</v>
+        <v>92000</v>
       </c>
       <c r="G119" s="18">
-        <v>1160000</v>
+        <v>2300000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3664,19 +3661,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F120" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G120" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3687,13 +3684,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F121" s="18">
         <v>46400</v>
@@ -3710,19 +3707,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F122" s="18">
-        <v>46400</v>
+        <v>92000</v>
       </c>
       <c r="G122" s="18">
-        <v>1160000</v>
+        <v>2300000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3733,19 +3730,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F123" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G123" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3756,13 +3753,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="F124" s="18">
         <v>46400</v>
@@ -3779,19 +3776,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="F125" s="18">
-        <v>46400</v>
+        <v>92000</v>
       </c>
       <c r="G125" s="18">
-        <v>1160000</v>
+        <v>2300000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3802,19 +3799,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="F126" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G126" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3825,13 +3822,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="F127" s="18">
         <v>46400</v>
@@ -3848,19 +3845,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D128" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F128" s="18">
-        <v>46400</v>
+        <v>92000</v>
       </c>
       <c r="G128" s="18">
-        <v>1160000</v>
+        <v>2300000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3871,19 +3868,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D129" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F129" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G129" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3894,13 +3891,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E130" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F130" s="18">
         <v>46400</v>
@@ -3917,19 +3914,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D131" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E131" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E131" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F131" s="18">
-        <v>46400</v>
+        <v>92000</v>
       </c>
       <c r="G131" s="18">
-        <v>1160000</v>
+        <v>2300000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3940,19 +3937,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D132" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E132" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F132" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G132" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3963,13 +3960,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D133" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E133" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F133" s="18">
         <v>46400</v>
@@ -3986,19 +3983,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F134" s="18">
-        <v>46400</v>
+        <v>92000</v>
       </c>
       <c r="G134" s="18">
-        <v>1160000</v>
+        <v>2300000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4009,19 +4006,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F135" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G135" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4032,13 +4029,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F136" s="18">
         <v>46400</v>
@@ -4055,19 +4052,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F137" s="18">
-        <v>46400</v>
+        <v>92000</v>
       </c>
       <c r="G137" s="18">
-        <v>1160000</v>
+        <v>2300000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4078,19 +4075,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F138" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G138" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4101,13 +4098,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="F139" s="18">
         <v>46400</v>
@@ -4124,19 +4121,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="F140" s="18">
-        <v>46400</v>
+        <v>92000</v>
       </c>
       <c r="G140" s="18">
-        <v>1160000</v>
+        <v>2300000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4147,19 +4144,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F141" s="18">
-        <v>56940</v>
+        <v>33125</v>
       </c>
       <c r="G141" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4170,19 +4167,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="F142" s="18">
-        <v>26572</v>
+        <v>46400</v>
       </c>
       <c r="G142" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4193,19 +4190,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D143" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E143" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F143" s="18">
-        <v>72000</v>
+        <v>92000</v>
       </c>
       <c r="G143" s="18">
-        <v>2521422</v>
+        <v>2300000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4216,19 +4213,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D144" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E144" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="F144" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G144" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4239,19 +4236,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D145" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E145" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E145" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="F145" s="18">
-        <v>72000</v>
+        <v>46400</v>
       </c>
       <c r="G145" s="18">
-        <v>2521422</v>
+        <v>1160000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4262,19 +4259,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F146" s="18">
-        <v>72000</v>
+        <v>92000</v>
       </c>
       <c r="G146" s="18">
-        <v>2521422</v>
+        <v>2300000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4285,19 +4282,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F147" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G147" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4308,19 +4305,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F148" s="18">
-        <v>72000</v>
+        <v>46400</v>
       </c>
       <c r="G148" s="18">
-        <v>2521422</v>
+        <v>1160000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4331,19 +4328,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F149" s="18">
-        <v>72000</v>
+        <v>92000</v>
       </c>
       <c r="G149" s="18">
-        <v>2521422</v>
+        <v>2300000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4354,19 +4351,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F150" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G150" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4377,19 +4374,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F151" s="18">
-        <v>72000</v>
+        <v>46400</v>
       </c>
       <c r="G151" s="18">
-        <v>2521422</v>
+        <v>1160000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4400,19 +4397,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F152" s="18">
-        <v>72000</v>
+        <v>92000</v>
       </c>
       <c r="G152" s="18">
-        <v>2521422</v>
+        <v>2300000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4423,19 +4420,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F153" s="18">
-        <v>72000</v>
+        <v>33125</v>
       </c>
       <c r="G153" s="18">
-        <v>2521422</v>
+        <v>828116</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4446,19 +4443,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E154" s="16" t="s">
         <v>98</v>
       </c>
       <c r="F154" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G154" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4469,57 +4466,69 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="E155" s="16" t="s">
         <v>99</v>
       </c>
       <c r="F155" s="18">
-        <v>33125</v>
+        <v>92000</v>
       </c>
       <c r="G155" s="18">
-        <v>877803</v>
+        <v>2300000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
       <c r="J155" s="20"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D156" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F156" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G156" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H156" s="25"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="26"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C161" s="32"/>
-      <c r="H161" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
+      <c r="B156" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F156" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G156" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="20"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B157" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E157" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F157" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G157" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="26"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="32" t="s">
@@ -4527,17 +4536,28 @@
       </c>
       <c r="C162" s="32"/>
       <c r="H162" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B163" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C163" s="32"/>
+      <c r="H163" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B163:C163"/>
     <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="H163:J163"/>
     <mergeCell ref="H162:J162"/>
-    <mergeCell ref="H161:J161"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
